--- a/durationsODBC.xlsx
+++ b/durationsODBC.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1140,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1260,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1516,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1748,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2108,7 +2108,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +2476,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +2508,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3004,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3564,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3620,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3652,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3772,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3804,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3988,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4004,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4028,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4036,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4148,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4188,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4204,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4236,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4276,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4300,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4324,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4388,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4404,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4420,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4436,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4476,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4508,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4540,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4548,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,7 +4580,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4612,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4628,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4652,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4668,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4684,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,7 +4700,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,7 +4724,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4740,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -4764,7 +4764,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -4780,7 +4780,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4812,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4820,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4836,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,7 +4844,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +4860,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,7 +4868,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -4884,7 +4884,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4940,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4972,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,7 +4988,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,7 +4996,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5028,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,7 +5036,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5060,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5068,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5084,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -5092,7 +5092,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -5100,7 +5100,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -5108,7 +5108,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -5156,7 +5156,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5228,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -5236,7 +5236,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,7 +5244,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -5252,7 +5252,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -5260,7 +5260,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -5268,7 +5268,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -5292,7 +5292,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -5308,7 +5308,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -5324,7 +5324,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -5332,7 +5332,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -5340,7 +5340,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -5348,7 +5348,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5356,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -5364,7 +5364,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,7 +5380,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -5396,7 +5396,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -5412,7 +5412,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -5420,7 +5420,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -5452,7 +5452,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -5460,7 +5460,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -5468,7 +5468,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -5508,7 +5508,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -5532,7 +5532,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -5556,7 +5556,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -5564,7 +5564,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -5572,7 +5572,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -5580,7 +5580,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -5604,7 +5604,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -5612,7 +5612,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -5620,7 +5620,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -5644,7 +5644,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5660,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -5676,7 +5676,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -5684,7 +5684,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5692,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -5700,7 +5700,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -5708,7 +5708,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -5716,7 +5716,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -5740,7 +5740,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -5748,7 +5748,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -5764,7 +5764,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -5772,7 +5772,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -5804,7 +5804,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5828,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -5836,7 +5836,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,7 +5844,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -5860,7 +5860,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,7 +5868,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -5876,7 +5876,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5892,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,7 +5908,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,7 +5916,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -5924,7 +5924,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -5932,7 +5932,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -5940,7 +5940,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -5964,7 +5964,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -5972,7 +5972,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5980,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -5988,7 +5988,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -6012,7 +6012,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -6020,7 +6020,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,7 +6028,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -6036,7 +6036,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -6044,7 +6044,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -6052,7 +6052,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -6068,7 +6068,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6076,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6084,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -6108,7 +6108,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -6124,7 +6124,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
@@ -6140,7 +6140,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -6148,7 +6148,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,7 +6172,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
@@ -6188,7 +6188,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,7 +6196,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6220,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
@@ -6228,7 +6228,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
@@ -6236,7 +6236,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
@@ -6244,7 +6244,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
@@ -6276,7 +6276,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
@@ -6284,7 +6284,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +6308,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
@@ -6316,7 +6316,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6340,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
@@ -6348,7 +6348,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +6356,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
@@ -6380,7 +6380,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
@@ -6420,7 +6420,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6428,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,7 +6436,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
@@ -6460,7 +6460,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
@@ -6468,7 +6468,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6476,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +6484,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,7 +6492,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
@@ -6508,7 +6508,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
@@ -6516,7 +6516,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
@@ -6524,7 +6524,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6540,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6548,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,7 +6556,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
@@ -6564,7 +6564,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
@@ -6580,7 +6580,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
@@ -6588,7 +6588,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
@@ -6596,7 +6596,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6620,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,7 +6636,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6644,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -6652,7 +6652,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -6660,7 +6660,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,7 +6668,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -6700,7 +6700,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -6708,7 +6708,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -6716,7 +6716,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -6724,7 +6724,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
@@ -6732,7 +6732,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -6740,7 +6740,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,7 +6748,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6764,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -6780,7 +6780,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6788,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -6796,7 +6796,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6812,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,7 +6828,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6836,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
@@ -6844,7 +6844,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6860,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -6876,7 +6876,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
@@ -6884,7 +6884,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +6900,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6924,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,7 +6940,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +6972,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6988,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
@@ -7036,7 +7036,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7044,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
@@ -7052,7 +7052,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
@@ -7068,7 +7068,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +7076,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +7084,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +7092,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7100,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7116,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -7124,7 +7124,7 @@
         <v>839</v>
       </c>
       <c r="B841">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -7140,7 +7140,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7148,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +7156,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +7164,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7172,7 +7172,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,7 +7188,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -7196,7 +7196,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +7204,7 @@
         <v>849</v>
       </c>
       <c r="B851">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,7 +7212,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +7220,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
@@ -7228,7 +7228,7 @@
         <v>852</v>
       </c>
       <c r="B854">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7236,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7244,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
@@ -7252,7 +7252,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +7260,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7268,7 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7300,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7308,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +7316,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7332,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7340,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7348,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +7356,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7364,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
@@ -7380,7 +7380,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
@@ -7388,7 +7388,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7396,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,7 +7404,7 @@
         <v>874</v>
       </c>
       <c r="B876">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7412,7 @@
         <v>875</v>
       </c>
       <c r="B877">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7420,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7436,7 @@
         <v>878</v>
       </c>
       <c r="B880">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
@@ -7452,7 +7452,7 @@
         <v>880</v>
       </c>
       <c r="B882">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7460,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
@@ -7468,7 +7468,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,7 +7476,7 @@
         <v>883</v>
       </c>
       <c r="B885">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7484,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7500,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7508,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7516,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
@@ -7524,7 +7524,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
@@ -7532,7 +7532,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
@@ -7540,7 +7540,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7556,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7564,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7572,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7580,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7588,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
@@ -7596,7 +7596,7 @@
         <v>898</v>
       </c>
       <c r="B900">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7604,7 @@
         <v>899</v>
       </c>
       <c r="B901">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7612,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7620,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7628,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
@@ -7636,7 +7636,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
@@ -7644,7 +7644,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
@@ -7652,7 +7652,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7668,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
@@ -7676,7 +7676,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,7 +7692,7 @@
         <v>910</v>
       </c>
       <c r="B912">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7700,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7708,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
@@ -7716,7 +7716,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
@@ -7724,7 +7724,7 @@
         <v>914</v>
       </c>
       <c r="B916">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7732,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
@@ -7740,7 +7740,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
@@ -7788,7 +7788,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
@@ -7796,7 +7796,7 @@
         <v>923</v>
       </c>
       <c r="B925">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7804,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
@@ -7812,7 +7812,7 @@
         <v>925</v>
       </c>
       <c r="B927">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
@@ -7820,7 +7820,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
@@ -7828,7 +7828,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
@@ -7844,7 +7844,7 @@
         <v>929</v>
       </c>
       <c r="B931">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
@@ -7852,7 +7852,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
@@ -7868,7 +7868,7 @@
         <v>932</v>
       </c>
       <c r="B934">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
@@ -7884,7 +7884,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
@@ -7900,7 +7900,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
@@ -7908,7 +7908,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
@@ -7916,7 +7916,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
@@ -7940,7 +7940,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
@@ -7956,7 +7956,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
@@ -7964,7 +7964,7 @@
         <v>944</v>
       </c>
       <c r="B946">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
@@ -7980,7 +7980,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +7988,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
@@ -7996,7 +7996,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
@@ -8028,7 +8028,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -8052,7 +8052,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
@@ -8060,7 +8060,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
@@ -8068,7 +8068,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
@@ -8084,7 +8084,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
@@ -8092,7 +8092,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
@@ -8100,7 +8100,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
@@ -8108,7 +8108,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
@@ -8116,7 +8116,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
@@ -8124,7 +8124,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
@@ -8140,7 +8140,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
@@ -8148,7 +8148,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
@@ -8164,7 +8164,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -8172,7 +8172,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
@@ -8180,7 +8180,7 @@
         <v>971</v>
       </c>
       <c r="B973">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
@@ -8196,7 +8196,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -8204,7 +8204,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
@@ -8212,7 +8212,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
@@ -8220,7 +8220,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
@@ -8236,7 +8236,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
@@ -8268,7 +8268,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
@@ -8276,7 +8276,7 @@
         <v>983</v>
       </c>
       <c r="B985">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
@@ -8308,7 +8308,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
@@ -8316,7 +8316,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
@@ -8324,7 +8324,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
@@ -8332,7 +8332,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
@@ -8348,7 +8348,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
@@ -8364,7 +8364,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>996</v>
       </c>
       <c r="B998">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
@@ -8404,7 +8404,7 @@
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/durationsODBC.xlsx
+++ b/durationsODBC.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1140,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1516,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1588,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1676,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1748,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +2508,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +2516,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3004,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3428,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3596,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3620,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3636,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3652,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3804,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3820,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3900,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3948,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3988,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4028,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4108,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4140,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,7 +4156,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4164,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4204,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4212,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4252,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4268,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4276,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4300,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4316,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4348,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4388,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4404,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4420,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4436,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4452,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4460,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4476,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4500,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4516,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4532,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4572,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,7 +4580,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,7 +4588,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,7 +4604,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4612,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -4620,7 +4620,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4628,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -4636,7 +4636,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4652,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +4660,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4668,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4684,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -4692,7 +4692,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -4708,7 +4708,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,7 +4724,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4740,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -4780,7 +4780,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -4788,7 +4788,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -4804,7 +4804,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4820,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4836,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,7 +4844,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +4852,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +4860,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,7 +4868,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4908,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4924,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -4964,7 +4964,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4972,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,7 +4988,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,7 +4996,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -5012,7 +5012,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5028,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5060,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5068,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,7 +5076,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5084,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -5092,7 +5092,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -5100,7 +5100,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -5108,7 +5108,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,7 +5124,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -5140,7 +5140,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5148,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -5156,7 +5156,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +5164,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -5188,7 +5188,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -5204,7 +5204,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5228,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -5236,7 +5236,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,7 +5244,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -5252,7 +5252,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -5276,7 +5276,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -5292,7 +5292,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -5308,7 +5308,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -5316,7 +5316,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -5324,7 +5324,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -5348,7 +5348,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5356,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,7 +5372,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,7 +5380,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -5388,7 +5388,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -5404,7 +5404,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -5412,7 +5412,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -5428,7 +5428,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -5452,7 +5452,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -5468,7 +5468,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -5500,7 +5500,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -5508,7 +5508,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -5532,7 +5532,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -5540,7 +5540,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -5556,7 +5556,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -5564,7 +5564,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -5572,7 +5572,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -5580,7 +5580,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -5604,7 +5604,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -5612,7 +5612,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -5620,7 +5620,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -5628,7 +5628,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,7 +5636,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -5644,7 +5644,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5660,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -5668,7 +5668,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -5684,7 +5684,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5692,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -5700,7 +5700,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -5708,7 +5708,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -5716,7 +5716,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -5732,7 +5732,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -5740,7 +5740,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -5748,7 +5748,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -5764,7 +5764,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -5772,7 +5772,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -5796,7 +5796,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -5804,7 +5804,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -5820,7 +5820,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5828,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -5836,7 +5836,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,7 +5844,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +5852,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -5860,7 +5860,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,7 +5868,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -5876,7 +5876,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -5884,7 +5884,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5892,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,7 +5908,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -5924,7 +5924,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -5948,7 +5948,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -5964,7 +5964,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5980,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -5988,7 +5988,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -5996,7 +5996,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -6004,7 +6004,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -6020,7 +6020,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -6036,7 +6036,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -6052,7 +6052,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6076,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6084,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -6100,7 +6100,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
@@ -6108,7 +6108,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -6116,7 +6116,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
@@ -6124,7 +6124,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
@@ -6140,7 +6140,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,7 +6196,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
@@ -6212,7 +6212,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6220,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
@@ -6236,7 +6236,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
@@ -6244,7 +6244,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
@@ -6260,7 +6260,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
@@ -6276,7 +6276,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +6292,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
@@ -6300,7 +6300,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +6308,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
@@ -6316,7 +6316,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +6332,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6340,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +6356,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
@@ -6372,7 +6372,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
@@ -6380,7 +6380,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
         <v>747</v>
       </c>
       <c r="B749">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
@@ -6396,7 +6396,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>749</v>
       </c>
       <c r="B751">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,7 +6412,7 @@
         <v>750</v>
       </c>
       <c r="B752">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
@@ -6420,7 +6420,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6428,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,7 +6436,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
@@ -6460,7 +6460,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
@@ -6468,7 +6468,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6476,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,7 +6492,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
@@ -6508,7 +6508,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
@@ -6516,7 +6516,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
@@ -6524,7 +6524,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6540,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6548,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,7 +6556,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
@@ -6564,7 +6564,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
@@ -6580,7 +6580,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
@@ -6588,7 +6588,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
@@ -6596,7 +6596,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6620,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -6628,7 +6628,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,7 +6636,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6644,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -6652,7 +6652,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -6660,7 +6660,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,7 +6668,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -6676,7 +6676,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
@@ -6692,7 +6692,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
@@ -6700,7 +6700,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -6708,7 +6708,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -6716,7 +6716,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -6724,7 +6724,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
@@ -6732,7 +6732,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -6740,7 +6740,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,7 +6748,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -6756,7 +6756,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6764,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6788,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -6796,7 +6796,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -6804,7 +6804,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6812,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -6820,7 +6820,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,7 +6828,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6836,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,7 +6852,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6860,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -6868,7 +6868,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
@@ -6876,7 +6876,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
@@ -6884,7 +6884,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -6892,7 +6892,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +6900,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6924,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -6932,7 +6932,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,7 +6940,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -6948,7 +6948,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -6964,7 +6964,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +6972,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
@@ -6980,7 +6980,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6988,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
@@ -6996,7 +6996,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
@@ -7004,7 +7004,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
@@ -7020,7 +7020,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7044,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7060,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -7068,7 +7068,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +7076,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +7084,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7100,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -7108,7 +7108,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7116,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7148,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +7156,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +7164,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7172,7 +7172,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +7204,7 @@
         <v>849</v>
       </c>
       <c r="B851">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +7220,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
@@ -7228,7 +7228,7 @@
         <v>852</v>
       </c>
       <c r="B854">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7236,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +7260,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7268,7 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7300,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7308,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +7316,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7332,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7340,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7348,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7364,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
@@ -7388,7 +7388,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7396,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,7 +7404,7 @@
         <v>874</v>
       </c>
       <c r="B876">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7420,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
@@ -7428,7 +7428,7 @@
         <v>877</v>
       </c>
       <c r="B879">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7436,7 @@
         <v>878</v>
       </c>
       <c r="B880">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7444,7 @@
         <v>879</v>
       </c>
       <c r="B881">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,7 +7476,7 @@
         <v>883</v>
       </c>
       <c r="B885">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7484,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7500,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7508,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7516,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
@@ -7524,7 +7524,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
@@ -7532,7 +7532,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
@@ -7540,7 +7540,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,7 +7548,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7556,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7564,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7572,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7588,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7612,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7620,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7628,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
@@ -7652,7 +7652,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7668,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
@@ -7676,7 +7676,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7700,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7708,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
@@ -7716,7 +7716,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
@@ -7724,7 +7724,7 @@
         <v>914</v>
       </c>
       <c r="B916">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7732,7 @@
         <v>915</v>
       </c>
       <c r="B917">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
@@ -7740,7 +7740,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>918</v>
       </c>
       <c r="B920">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
@@ -7764,7 +7764,7 @@
         <v>919</v>
       </c>
       <c r="B921">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
@@ -7772,7 +7772,7 @@
         <v>920</v>
       </c>
       <c r="B922">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7780,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
@@ -7796,7 +7796,7 @@
         <v>923</v>
       </c>
       <c r="B925">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7804,7 @@
         <v>924</v>
       </c>
       <c r="B926">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
@@ -7820,7 +7820,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
@@ -7836,7 +7836,7 @@
         <v>928</v>
       </c>
       <c r="B930">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
@@ -7852,7 +7852,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
@@ -7860,7 +7860,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
@@ -7876,7 +7876,7 @@
         <v>933</v>
       </c>
       <c r="B935">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
@@ -7884,7 +7884,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
@@ -7892,7 +7892,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
@@ -7900,7 +7900,7 @@
         <v>936</v>
       </c>
       <c r="B938">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
@@ -7908,7 +7908,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
@@ -7916,7 +7916,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
@@ -7924,7 +7924,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
@@ -7932,7 +7932,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
@@ -7948,7 +7948,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
@@ -7956,7 +7956,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
         <v>945</v>
       </c>
       <c r="B947">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
@@ -7980,7 +7980,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
@@ -7988,7 +7988,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
@@ -7996,7 +7996,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
@@ -8020,7 +8020,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
@@ -8028,7 +8028,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -8036,7 +8036,7 @@
         <v>953</v>
       </c>
       <c r="B955">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
@@ -8044,7 +8044,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
@@ -8052,7 +8052,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
@@ -8068,7 +8068,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
@@ -8076,7 +8076,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
@@ -8092,7 +8092,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
@@ -8100,7 +8100,7 @@
         <v>961</v>
       </c>
       <c r="B963">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
@@ -8108,7 +8108,7 @@
         <v>962</v>
       </c>
       <c r="B964">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
@@ -8116,7 +8116,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
@@ -8124,7 +8124,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
@@ -8132,7 +8132,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
@@ -8140,7 +8140,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
@@ -8148,7 +8148,7 @@
         <v>967</v>
       </c>
       <c r="B969">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
@@ -8164,7 +8164,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -8188,7 +8188,7 @@
         <v>972</v>
       </c>
       <c r="B974">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
@@ -8196,7 +8196,7 @@
         <v>973</v>
       </c>
       <c r="B975">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -8204,7 +8204,7 @@
         <v>974</v>
       </c>
       <c r="B976">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
@@ -8220,7 +8220,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
@@ -8228,7 +8228,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
@@ -8244,7 +8244,7 @@
         <v>979</v>
       </c>
       <c r="B981">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
@@ -8260,7 +8260,7 @@
         <v>981</v>
       </c>
       <c r="B983">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
@@ -8268,7 +8268,7 @@
         <v>982</v>
       </c>
       <c r="B984">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
@@ -8284,7 +8284,7 @@
         <v>984</v>
       </c>
       <c r="B986">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
@@ -8300,7 +8300,7 @@
         <v>986</v>
       </c>
       <c r="B988">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
@@ -8308,7 +8308,7 @@
         <v>987</v>
       </c>
       <c r="B989">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
@@ -8316,7 +8316,7 @@
         <v>988</v>
       </c>
       <c r="B990">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
@@ -8324,7 +8324,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
@@ -8332,7 +8332,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
@@ -8340,7 +8340,7 @@
         <v>991</v>
       </c>
       <c r="B993">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
@@ -8348,7 +8348,7 @@
         <v>992</v>
       </c>
       <c r="B994">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
@@ -8356,7 +8356,7 @@
         <v>993</v>
       </c>
       <c r="B995">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
@@ -8364,7 +8364,7 @@
         <v>994</v>
       </c>
       <c r="B996">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
@@ -8372,7 +8372,7 @@
         <v>995</v>
       </c>
       <c r="B997">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>996</v>
       </c>
       <c r="B998">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
@@ -8388,7 +8388,7 @@
         <v>997</v>
       </c>
       <c r="B999">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
@@ -8396,7 +8396,7 @@
         <v>998</v>
       </c>
       <c r="B1000">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
@@ -8404,7 +8404,7 @@
         <v>999</v>
       </c>
       <c r="B1001">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
